--- a/DB/GradesDatabase-goldenversion.xlsx
+++ b/DB/GradesDatabase-goldenversion.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="56">
   <si>
     <t>NAME</t>
   </si>
@@ -198,12 +198,19 @@
   <si>
     <t>ID</t>
   </si>
+  <si>
+    <t>PROJECT 4</t>
+  </si>
+  <si>
+    <t>ASSIGNMENT 4</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -267,6 +274,16 @@
       <sz val="10"/>
       <color theme="11"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
   </fonts>
   <fills count="3">
@@ -411,7 +428,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -466,6 +483,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="30">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -835,13 +854,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="22.83203125" customWidth="1"/>
-    <col min="2" max="2" width="19.5" style="17" customWidth="1"/>
-    <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="2.6640625" customWidth="1"/>
-    <col min="5" max="5" width="7.5" customWidth="1"/>
-    <col min="6" max="6" width="4.5" customWidth="1"/>
-    <col min="7" max="7" width="9.83203125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="22.83203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="17" width="19.5" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="2.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="7.5" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="4.5" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="9.83203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="28.5" customHeight="1">
@@ -1199,12 +1218,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="11.5" customWidth="1"/>
-    <col min="2" max="2" width="12.5" customWidth="1"/>
-    <col min="3" max="3" width="16.5" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="11.5" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.5" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="28.5" customHeight="1">
@@ -1319,8 +1338,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="16.83203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="13.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="28.5" customHeight="1">
@@ -1456,7 +1475,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
@@ -1464,10 +1483,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="15.5" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.5" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" customHeight="1">
@@ -1483,6 +1502,9 @@
       <c r="D1" s="8" t="s">
         <v>34</v>
       </c>
+      <c r="E1" s="19" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="2" spans="1:4" ht="28.5" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -1497,6 +1519,9 @@
       <c r="D2" s="2">
         <v>75</v>
       </c>
+      <c r="E2" t="n">
+        <v>95.0</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="28.5" customHeight="1">
       <c r="A3" s="2" t="s">
@@ -1511,6 +1536,9 @@
       <c r="D3" s="2">
         <v>71</v>
       </c>
+      <c r="E3" t="n">
+        <v>96.0</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="28.5" customHeight="1">
       <c r="A4" s="2" t="s">
@@ -1525,6 +1553,9 @@
       <c r="D4" s="2">
         <v>85</v>
       </c>
+      <c r="E4" t="n">
+        <v>65.0</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="28.5" customHeight="1">
       <c r="A5" s="2" t="s">
@@ -1539,6 +1570,9 @@
       <c r="D5" s="2">
         <v>40</v>
       </c>
+      <c r="E5" t="n">
+        <v>17.0</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="28.5" customHeight="1">
       <c r="A6" s="2" t="s">
@@ -1553,6 +1587,9 @@
       <c r="D6" s="2">
         <v>90</v>
       </c>
+      <c r="E6" t="n">
+        <v>87.0</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="28.5" customHeight="1">
       <c r="A7" s="2" t="s">
@@ -1567,6 +1604,9 @@
       <c r="D7" s="2">
         <v>85</v>
       </c>
+      <c r="E7" t="n">
+        <v>65.0</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="28.5" customHeight="1">
       <c r="A8" s="2" t="s">
@@ -1581,6 +1621,9 @@
       <c r="D8" s="2">
         <v>85</v>
       </c>
+      <c r="E8" t="n">
+        <v>90.0</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="28.5" customHeight="1">
       <c r="A9" s="2" t="s">
@@ -1595,6 +1638,9 @@
       <c r="D9" s="2">
         <v>100</v>
       </c>
+      <c r="E9" t="n">
+        <v>35.0</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="28.5" customHeight="1">
       <c r="A10" s="2" t="s">
@@ -1609,6 +1655,9 @@
       <c r="D10" s="2">
         <v>75</v>
       </c>
+      <c r="E10" t="n">
+        <v>67.0</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="28.5" customHeight="1">
       <c r="A11" s="2" t="s">
@@ -1623,6 +1672,9 @@
       <c r="D11" s="2">
         <v>71</v>
       </c>
+      <c r="E11" t="n">
+        <v>95.0</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="28.5" customHeight="1">
       <c r="A12" s="2" t="s">
@@ -1637,6 +1689,9 @@
       <c r="D12" s="2">
         <v>85</v>
       </c>
+      <c r="E12" t="n">
+        <v>96.0</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="28.5" customHeight="1">
       <c r="A13" s="2" t="s">
@@ -1651,6 +1706,9 @@
       <c r="D13" s="2">
         <v>40</v>
       </c>
+      <c r="E13" t="n">
+        <v>65.0</v>
+      </c>
     </row>
     <row r="14" spans="1:4" ht="28.5" customHeight="1">
       <c r="A14" s="2" t="s">
@@ -1665,6 +1723,9 @@
       <c r="D14" s="2">
         <v>90</v>
       </c>
+      <c r="E14" t="n">
+        <v>17.0</v>
+      </c>
     </row>
     <row r="15" spans="1:4" ht="28.5" customHeight="1">
       <c r="A15" s="2" t="s">
@@ -1678,6 +1739,9 @@
       </c>
       <c r="D15" s="2">
         <v>85</v>
+      </c>
+      <c r="E15" t="n">
+        <v>87.0</v>
       </c>
     </row>
   </sheetData>
@@ -1693,7 +1757,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
@@ -1702,9 +1766,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.5" customWidth="1"/>
-    <col min="3" max="4" width="11" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="16.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.5" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" customHeight="1">
@@ -1720,6 +1784,9 @@
       <c r="D1" s="13" t="s">
         <v>37</v>
       </c>
+      <c r="E1" s="18" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="2" spans="1:4" ht="28.5" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -1729,6 +1796,9 @@
         <v>83</v>
       </c>
       <c r="C2" s="3"/>
+      <c r="D2" t="n">
+        <v>95.0</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="28.5" customHeight="1">
       <c r="A3" s="2" t="s">
@@ -1738,6 +1808,9 @@
         <v>87</v>
       </c>
       <c r="C3" s="3"/>
+      <c r="D3" t="n">
+        <v>96.0</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="28.5" customHeight="1">
       <c r="A4" s="2" t="s">
@@ -1747,6 +1820,9 @@
         <v>84</v>
       </c>
       <c r="C4" s="3"/>
+      <c r="D4" t="n">
+        <v>65.0</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="28.5" customHeight="1">
       <c r="A5" s="2" t="s">
@@ -1756,6 +1832,9 @@
         <v>91</v>
       </c>
       <c r="C5" s="3"/>
+      <c r="D5" t="n">
+        <v>17.0</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="28.5" customHeight="1">
       <c r="A6" s="2" t="s">
@@ -1765,6 +1844,9 @@
         <v>100</v>
       </c>
       <c r="C6" s="3"/>
+      <c r="D6" t="n">
+        <v>87.0</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="28.5" customHeight="1">
       <c r="A7" s="2" t="s">
@@ -1779,6 +1861,9 @@
       <c r="D7">
         <v>89</v>
       </c>
+      <c r="E7" t="n">
+        <v>65.0</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="28.5" customHeight="1">
       <c r="A8" s="2" t="s">
@@ -1793,6 +1878,9 @@
       <c r="D8">
         <v>92</v>
       </c>
+      <c r="E8" t="n">
+        <v>90.0</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="28.5" customHeight="1">
       <c r="A9" s="2" t="s">
@@ -1807,6 +1895,9 @@
       <c r="D9">
         <v>50</v>
       </c>
+      <c r="E9" t="n">
+        <v>35.0</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="28.5" customHeight="1">
       <c r="A10" s="2" t="s">
@@ -1820,6 +1911,9 @@
       </c>
       <c r="D10">
         <v>93</v>
+      </c>
+      <c r="E10" t="n">
+        <v>67.0</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="28.5" customHeight="1">
@@ -1923,10 +2017,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" customWidth="1"/>
-    <col min="3" max="3" width="13.5" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="13.1640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.5" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" customHeight="1">

--- a/DB/GradesDatabase-goldenversion.xlsx
+++ b/DB/GradesDatabase-goldenversion.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10414"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/M-Work/Desktop/QA-Group-Project/DB/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312B74F8-31BB-6B48-B7F4-15EEA8192AD3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25520" windowHeight="14380" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="StudentsInfo" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
     <sheet name="IndividualContribs" sheetId="11" r:id="rId5"/>
     <sheet name="TeamGrades" sheetId="14" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -30,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="56">
   <si>
     <t>NAME</t>
   </si>
@@ -204,12 +198,19 @@
   <si>
     <t>ID</t>
   </si>
+  <si>
+    <t>PROJECT 4</t>
+  </si>
+  <si>
+    <t>ASSIGNMENT 4</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -273,6 +274,16 @@
       <sz val="10"/>
       <color theme="11"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
   </fonts>
   <fills count="3">
@@ -417,7 +428,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -472,6 +483,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="30">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -507,14 +520,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -839,26 +844,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="22.83203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.5" style="17" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="2.6640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="7.5" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="4.5" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.83203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="22.83203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="17" width="19.5" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="2.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="7.5" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="4.5" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="9.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="28.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -881,7 +886,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="28.5" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -904,7 +909,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="28.5" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -924,7 +929,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="28.5" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -947,7 +952,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="28.5" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -970,7 +975,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="28.5" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -993,7 +998,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="28.5" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -1016,7 +1021,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="28.5" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -1039,7 +1044,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="28.5" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -1062,7 +1067,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="28.5" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -1082,7 +1087,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="28.5" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
@@ -1102,7 +1107,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="28.5" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
@@ -1125,7 +1130,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="28.5" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
@@ -1145,7 +1150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="28.5" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -1168,7 +1173,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="28.5" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
@@ -1203,7 +1208,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1211,17 +1216,17 @@
       <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="11.5" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.5" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.5" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="11.5" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.5" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="28.5" customHeight="1">
       <c r="A1" s="10" t="s">
         <v>25</v>
       </c>
@@ -1242,7 +1247,7 @@
       </c>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="28.5" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>22</v>
       </c>
@@ -1263,7 +1268,7 @@
       </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="28.5" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>23</v>
       </c>
@@ -1284,7 +1289,7 @@
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="28.5" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>24</v>
       </c>
@@ -1303,7 +1308,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -1323,7 +1328,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1331,13 +1336,13 @@
       <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="16.83203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="13.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="28.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1345,7 +1350,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" ht="28.5" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1353,7 +1358,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="28.5" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1361,7 +1366,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" ht="28.5" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -1369,7 +1374,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" ht="28.5" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -1377,7 +1382,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" ht="28.5" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -1385,7 +1390,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="28.5" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -1393,7 +1398,7 @@
         <v>83.333333333333343</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" ht="28.5" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -1401,7 +1406,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2" ht="28.5" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -1409,7 +1414,7 @@
         <v>86.666666666666671</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2" ht="28.5" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -1417,7 +1422,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2" ht="28.5" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
@@ -1425,7 +1430,7 @@
         <v>86.666666666666671</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2" ht="28.5" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
@@ -1433,7 +1438,7 @@
         <v>93.333333333333329</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2" ht="28.5" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
@@ -1441,7 +1446,7 @@
         <v>96.666666666666671</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2" ht="28.5" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -1449,7 +1454,7 @@
         <v>86.666666666666671</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2" ht="28.5" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
@@ -1469,22 +1474,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:J1048576"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.5" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.5" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="28.5" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1497,8 +1502,11 @@
       <c r="D1" s="8" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E1" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="28.5" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1511,8 +1519,11 @@
       <c r="D2" s="2">
         <v>75</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E2" t="n">
+        <v>95.0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="28.5" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1525,8 +1536,11 @@
       <c r="D3" s="2">
         <v>71</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E3" t="n">
+        <v>96.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.5" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -1539,8 +1553,11 @@
       <c r="D4" s="2">
         <v>85</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E4" t="n">
+        <v>65.0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.5" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -1553,8 +1570,11 @@
       <c r="D5" s="2">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E5" t="n">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="28.5" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -1567,8 +1587,11 @@
       <c r="D6" s="2">
         <v>90</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E6" t="n">
+        <v>87.0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="28.5" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -1581,8 +1604,11 @@
       <c r="D7" s="2">
         <v>85</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E7" t="n">
+        <v>65.0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="28.5" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -1595,8 +1621,11 @@
       <c r="D8" s="2">
         <v>85</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E8" t="n">
+        <v>90.0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="28.5" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -1609,8 +1638,11 @@
       <c r="D9" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E9" t="n">
+        <v>35.0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="28.5" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -1623,8 +1655,11 @@
       <c r="D10" s="2">
         <v>75</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E10" t="n">
+        <v>67.0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="28.5" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
@@ -1637,8 +1672,11 @@
       <c r="D11" s="2">
         <v>71</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E11" t="n">
+        <v>95.0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="28.5" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
@@ -1651,8 +1689,11 @@
       <c r="D12" s="2">
         <v>85</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E12" t="n">
+        <v>96.0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="28.5" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
@@ -1665,8 +1706,11 @@
       <c r="D13" s="2">
         <v>40</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E13" t="n">
+        <v>65.0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="28.5" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -1679,8 +1723,11 @@
       <c r="D14" s="2">
         <v>90</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E14" t="n">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="28.5" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
@@ -1692,6 +1739,9 @@
       </c>
       <c r="D15" s="2">
         <v>85</v>
+      </c>
+      <c r="E15" t="n">
+        <v>87.0</v>
       </c>
     </row>
   </sheetData>
@@ -1706,22 +1756,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1:E1048576"/>
+      <selection pane="bottomLeft" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.5" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="11" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="16.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.5" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="28.5" customHeight="1">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1734,8 +1784,11 @@
       <c r="D1" s="13" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E1" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="28.5" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1743,11 +1796,11 @@
         <v>83</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E2" t="n">
+        <v>95.0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="28.5" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1755,11 +1808,11 @@
         <v>87</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E3" t="n">
+        <v>96.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.5" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -1767,11 +1820,11 @@
         <v>84</v>
       </c>
       <c r="C4" s="3"/>
-      <c r="D4">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E4" t="n">
+        <v>65.0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.5" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -1779,11 +1832,11 @@
         <v>91</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="D5">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E5" t="n">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="28.5" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -1791,11 +1844,11 @@
         <v>100</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E6" t="n">
+        <v>87.0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="28.5" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -1808,8 +1861,11 @@
       <c r="D7">
         <v>89</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E7" t="n">
+        <v>65.0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="28.5" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -1822,8 +1878,11 @@
       <c r="D8">
         <v>92</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E8" t="n">
+        <v>90.0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="28.5" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -1836,8 +1895,11 @@
       <c r="D9">
         <v>50</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E9" t="n">
+        <v>35.0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="28.5" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -1850,8 +1912,11 @@
       <c r="D10">
         <v>93</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E10" t="n">
+        <v>67.0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="28.5" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
@@ -1864,8 +1929,11 @@
       <c r="D11">
         <v>99</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E11" t="n">
+        <v>87.0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="28.5" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
@@ -1878,8 +1946,11 @@
       <c r="D12">
         <v>87</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E12" t="n">
+        <v>65.0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="28.5" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
@@ -1892,8 +1963,11 @@
       <c r="D13">
         <v>98</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E13" t="n">
+        <v>90.0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="28.5" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -1906,8 +1980,11 @@
       <c r="D14">
         <v>90</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E14" t="n">
+        <v>35.0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="28.5" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
@@ -1920,17 +1997,20 @@
       <c r="D15">
         <v>95</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E15" t="n">
+        <v>67.0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="28.5" customHeight="1">
       <c r="C16" s="3"/>
     </row>
-    <row r="17" spans="3:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:3" ht="28.5" customHeight="1">
       <c r="C17" s="3"/>
     </row>
-    <row r="18" spans="3:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:3" ht="28.5" customHeight="1">
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="3:3" ht="14.25" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -1943,22 +2023,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.1640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.5" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="13.1640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.5" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="28.5" customHeight="1">
       <c r="A1" s="8" t="s">
         <v>38</v>
       </c>
@@ -1972,7 +2052,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="28.5" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>22</v>
       </c>
@@ -1986,7 +2066,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="28.5" customHeight="1">
       <c r="A3" s="9" t="s">
         <v>23</v>
       </c>
@@ -2000,7 +2080,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="28.5" customHeight="1">
       <c r="A4" s="9" t="s">
         <v>24</v>
       </c>

--- a/DB/GradesDatabase-goldenversion.xlsx
+++ b/DB/GradesDatabase-goldenversion.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="54">
   <si>
     <t>NAME</t>
   </si>
@@ -198,19 +198,12 @@
   <si>
     <t>ID</t>
   </si>
-  <si>
-    <t>PROJECT 4</t>
-  </si>
-  <si>
-    <t>ASSIGNMENT 4</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -274,16 +267,6 @@
       <sz val="10"/>
       <color theme="11"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
     </font>
   </fonts>
   <fills count="3">
@@ -428,7 +411,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -483,8 +466,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="30">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -854,13 +835,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="22.83203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="17" width="19.5" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="2.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="7.5" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="4.5" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="9.83203125" collapsed="true"/>
+    <col min="1" max="1" width="22.83203125" customWidth="1"/>
+    <col min="2" max="2" width="19.5" style="17" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="2.6640625" customWidth="1"/>
+    <col min="5" max="5" width="7.5" customWidth="1"/>
+    <col min="6" max="6" width="4.5" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="28.5" customHeight="1">
@@ -1218,12 +1199,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="11.5" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="12.5" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.5" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="17.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="28.5" customHeight="1">
@@ -1338,8 +1319,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.83203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="28.5" customHeight="1">
@@ -1475,7 +1456,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
@@ -1483,10 +1464,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.5" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="15.5" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" customHeight="1">
@@ -1502,9 +1483,6 @@
       <c r="D1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="19" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="2" spans="1:4" ht="28.5" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -1519,9 +1497,6 @@
       <c r="D2" s="2">
         <v>75</v>
       </c>
-      <c r="E2" t="n">
-        <v>95.0</v>
-      </c>
     </row>
     <row r="3" spans="1:4" ht="28.5" customHeight="1">
       <c r="A3" s="2" t="s">
@@ -1536,9 +1511,6 @@
       <c r="D3" s="2">
         <v>71</v>
       </c>
-      <c r="E3" t="n">
-        <v>96.0</v>
-      </c>
     </row>
     <row r="4" spans="1:4" ht="28.5" customHeight="1">
       <c r="A4" s="2" t="s">
@@ -1553,9 +1525,6 @@
       <c r="D4" s="2">
         <v>85</v>
       </c>
-      <c r="E4" t="n">
-        <v>65.0</v>
-      </c>
     </row>
     <row r="5" spans="1:4" ht="28.5" customHeight="1">
       <c r="A5" s="2" t="s">
@@ -1570,9 +1539,6 @@
       <c r="D5" s="2">
         <v>40</v>
       </c>
-      <c r="E5" t="n">
-        <v>17.0</v>
-      </c>
     </row>
     <row r="6" spans="1:4" ht="28.5" customHeight="1">
       <c r="A6" s="2" t="s">
@@ -1587,9 +1553,6 @@
       <c r="D6" s="2">
         <v>90</v>
       </c>
-      <c r="E6" t="n">
-        <v>87.0</v>
-      </c>
     </row>
     <row r="7" spans="1:4" ht="28.5" customHeight="1">
       <c r="A7" s="2" t="s">
@@ -1604,9 +1567,6 @@
       <c r="D7" s="2">
         <v>85</v>
       </c>
-      <c r="E7" t="n">
-        <v>65.0</v>
-      </c>
     </row>
     <row r="8" spans="1:4" ht="28.5" customHeight="1">
       <c r="A8" s="2" t="s">
@@ -1621,9 +1581,6 @@
       <c r="D8" s="2">
         <v>85</v>
       </c>
-      <c r="E8" t="n">
-        <v>90.0</v>
-      </c>
     </row>
     <row r="9" spans="1:4" ht="28.5" customHeight="1">
       <c r="A9" s="2" t="s">
@@ -1638,9 +1595,6 @@
       <c r="D9" s="2">
         <v>100</v>
       </c>
-      <c r="E9" t="n">
-        <v>35.0</v>
-      </c>
     </row>
     <row r="10" spans="1:4" ht="28.5" customHeight="1">
       <c r="A10" s="2" t="s">
@@ -1655,9 +1609,6 @@
       <c r="D10" s="2">
         <v>75</v>
       </c>
-      <c r="E10" t="n">
-        <v>67.0</v>
-      </c>
     </row>
     <row r="11" spans="1:4" ht="28.5" customHeight="1">
       <c r="A11" s="2" t="s">
@@ -1672,9 +1623,6 @@
       <c r="D11" s="2">
         <v>71</v>
       </c>
-      <c r="E11" t="n">
-        <v>95.0</v>
-      </c>
     </row>
     <row r="12" spans="1:4" ht="28.5" customHeight="1">
       <c r="A12" s="2" t="s">
@@ -1689,9 +1637,6 @@
       <c r="D12" s="2">
         <v>85</v>
       </c>
-      <c r="E12" t="n">
-        <v>96.0</v>
-      </c>
     </row>
     <row r="13" spans="1:4" ht="28.5" customHeight="1">
       <c r="A13" s="2" t="s">
@@ -1706,9 +1651,6 @@
       <c r="D13" s="2">
         <v>40</v>
       </c>
-      <c r="E13" t="n">
-        <v>65.0</v>
-      </c>
     </row>
     <row r="14" spans="1:4" ht="28.5" customHeight="1">
       <c r="A14" s="2" t="s">
@@ -1723,9 +1665,6 @@
       <c r="D14" s="2">
         <v>90</v>
       </c>
-      <c r="E14" t="n">
-        <v>17.0</v>
-      </c>
     </row>
     <row r="15" spans="1:4" ht="28.5" customHeight="1">
       <c r="A15" s="2" t="s">
@@ -1739,9 +1678,6 @@
       </c>
       <c r="D15" s="2">
         <v>85</v>
-      </c>
-      <c r="E15" t="n">
-        <v>87.0</v>
       </c>
     </row>
   </sheetData>
@@ -1757,7 +1693,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
@@ -1766,9 +1702,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="11.5" collapsed="true"/>
-    <col min="3" max="4" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="3" max="4" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" customHeight="1">
@@ -1784,9 +1720,6 @@
       <c r="D1" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="18" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="2" spans="1:4" ht="28.5" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -1796,9 +1729,6 @@
         <v>83</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="E2" t="n">
-        <v>95.0</v>
-      </c>
     </row>
     <row r="3" spans="1:4" ht="28.5" customHeight="1">
       <c r="A3" s="2" t="s">
@@ -1808,9 +1738,6 @@
         <v>87</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="E3" t="n">
-        <v>96.0</v>
-      </c>
     </row>
     <row r="4" spans="1:4" ht="28.5" customHeight="1">
       <c r="A4" s="2" t="s">
@@ -1820,9 +1747,6 @@
         <v>84</v>
       </c>
       <c r="C4" s="3"/>
-      <c r="E4" t="n">
-        <v>65.0</v>
-      </c>
     </row>
     <row r="5" spans="1:4" ht="28.5" customHeight="1">
       <c r="A5" s="2" t="s">
@@ -1832,9 +1756,6 @@
         <v>91</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="E5" t="n">
-        <v>17.0</v>
-      </c>
     </row>
     <row r="6" spans="1:4" ht="28.5" customHeight="1">
       <c r="A6" s="2" t="s">
@@ -1844,9 +1765,6 @@
         <v>100</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="E6" t="n">
-        <v>87.0</v>
-      </c>
     </row>
     <row r="7" spans="1:4" ht="28.5" customHeight="1">
       <c r="A7" s="2" t="s">
@@ -1861,9 +1779,6 @@
       <c r="D7">
         <v>89</v>
       </c>
-      <c r="E7" t="n">
-        <v>65.0</v>
-      </c>
     </row>
     <row r="8" spans="1:4" ht="28.5" customHeight="1">
       <c r="A8" s="2" t="s">
@@ -1878,9 +1793,6 @@
       <c r="D8">
         <v>92</v>
       </c>
-      <c r="E8" t="n">
-        <v>90.0</v>
-      </c>
     </row>
     <row r="9" spans="1:4" ht="28.5" customHeight="1">
       <c r="A9" s="2" t="s">
@@ -1895,9 +1807,6 @@
       <c r="D9">
         <v>50</v>
       </c>
-      <c r="E9" t="n">
-        <v>35.0</v>
-      </c>
     </row>
     <row r="10" spans="1:4" ht="28.5" customHeight="1">
       <c r="A10" s="2" t="s">
@@ -1912,9 +1821,6 @@
       <c r="D10">
         <v>93</v>
       </c>
-      <c r="E10" t="n">
-        <v>67.0</v>
-      </c>
     </row>
     <row r="11" spans="1:4" ht="28.5" customHeight="1">
       <c r="A11" s="2" t="s">
@@ -1929,9 +1835,6 @@
       <c r="D11">
         <v>99</v>
       </c>
-      <c r="E11" t="n">
-        <v>87.0</v>
-      </c>
     </row>
     <row r="12" spans="1:4" ht="28.5" customHeight="1">
       <c r="A12" s="2" t="s">
@@ -1946,9 +1849,6 @@
       <c r="D12">
         <v>87</v>
       </c>
-      <c r="E12" t="n">
-        <v>65.0</v>
-      </c>
     </row>
     <row r="13" spans="1:4" ht="28.5" customHeight="1">
       <c r="A13" s="2" t="s">
@@ -1963,9 +1863,6 @@
       <c r="D13">
         <v>98</v>
       </c>
-      <c r="E13" t="n">
-        <v>90.0</v>
-      </c>
     </row>
     <row r="14" spans="1:4" ht="28.5" customHeight="1">
       <c r="A14" s="2" t="s">
@@ -1980,9 +1877,6 @@
       <c r="D14">
         <v>90</v>
       </c>
-      <c r="E14" t="n">
-        <v>35.0</v>
-      </c>
     </row>
     <row r="15" spans="1:4" ht="28.5" customHeight="1">
       <c r="A15" s="2" t="s">
@@ -1996,9 +1890,6 @@
       </c>
       <c r="D15">
         <v>95</v>
-      </c>
-      <c r="E15" t="n">
-        <v>67.0</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="28.5" customHeight="1">
@@ -2032,10 +1923,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="13.1640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.5" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" customHeight="1">
